--- a/biology/Botanique/Costus/Costus.xlsx
+++ b/biology/Botanique/Costus/Costus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Costus est un genre d'environ 150 espèces de plantes de l'ordre des zingibérales, de la famille des Costaceae. Il est présent dans toutes les régions tropicales.
 Le genre a été réformé, notamment en 2006.
@@ -512,10 +524,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (18 février 2012)[1] :
-Costus kupensis a été acceptée en 2016[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (18 février 2012) :
+Costus kupensis a été acceptée en 2016.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Espèces aux noms obsolètes et leur taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (23 février 2012)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (23 février 2012) :
 </t>
         </is>
       </c>
